--- a/data/scheduling_DNN/schedule/3.xlsx
+++ b/data/scheduling_DNN/schedule/3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>286</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4023351669311523</v>
+        <v>0.3907439708709717</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06289886186675467</v>
+        <v>0.06258220014261509</v>
       </c>
       <c r="H2" t="n">
-        <v>39.51565801969763</v>
+        <v>40.89374525122945</v>
       </c>
       <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
         <v>4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -494,37 +494,33 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>176</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
       <c r="F3" t="n">
-        <v>0.3984708786010742</v>
+        <v>0.3943130970001221</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06719211325502886</v>
+        <v>0.06293789983179811</v>
       </c>
       <c r="H3" t="n">
-        <v>37.3495275254248</v>
+        <v>40.29457234065668</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -535,33 +531,37 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
+        <v>285</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
       <c r="F4" t="n">
-        <v>0.3943130970001221</v>
+        <v>0.4026319980621338</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0697980439653207</v>
+        <v>0.0623462585347629</v>
       </c>
       <c r="H4" t="n">
-        <v>36.33419525340047</v>
+        <v>39.83651310846555</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -572,34 +572,34 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4040439128875732</v>
+        <v>0.4044609069824219</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06821706820875888</v>
+        <v>0.06297460430057811</v>
       </c>
       <c r="H5" t="n">
-        <v>36.28092750527996</v>
+        <v>39.26069662737825</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -613,31 +613,31 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>173</v>
+        <v>286</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3998570442199707</v>
+        <v>0.4023351669311523</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06930552120214153</v>
+        <v>0.06359206941579193</v>
       </c>
       <c r="H6" t="n">
-        <v>36.08505858809002</v>
+        <v>39.08490379678776</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -654,37 +654,37 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3930368423461914</v>
+        <v>0.3984708786010742</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07072338471654455</v>
+        <v>0.06821437123479886</v>
       </c>
       <c r="H7" t="n">
-        <v>35.97524007250131</v>
+        <v>36.78980892269688</v>
       </c>
       <c r="I7" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
         <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -695,25 +695,25 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4121530055999756</v>
+        <v>0.3962569236755371</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06954289298217994</v>
+        <v>0.06991584557428154</v>
       </c>
       <c r="H8" t="n">
-        <v>34.88902037681856</v>
+        <v>36.09503954562712</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
         <v>6</v>
@@ -736,25 +736,25 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>285</v>
+        <v>103</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4026319980621338</v>
+        <v>0.4121530055999756</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07199172773636368</v>
+        <v>0.0685962294564646</v>
       </c>
       <c r="H9" t="n">
-        <v>34.49920738781417</v>
+        <v>35.37050694394299</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
         <v>7</v>
@@ -777,22 +777,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>228</v>
+        <v>59</v>
       </c>
       <c r="D10" t="n">
         <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3962569236755371</v>
+        <v>0.3930368423461914</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07368901627994028</v>
+        <v>0.0719355159446991</v>
       </c>
       <c r="H10" t="n">
-        <v>34.24682996557566</v>
+        <v>35.36904838318669</v>
       </c>
       <c r="I10" t="n">
         <v>20</v>
@@ -818,25 +818,25 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>58</v>
+        <v>295</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3907439708709717</v>
+        <v>0.4040439128875732</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07597979656099883</v>
+        <v>0.07023566101285883</v>
       </c>
       <c r="H11" t="n">
-        <v>33.68290869058774</v>
+        <v>35.23820336583145</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>9</v>
@@ -859,37 +859,37 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>297</v>
+        <v>173</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4044609069824219</v>
+        <v>0.3998570442199707</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07478700850693128</v>
+        <v>0.07676256820125123</v>
       </c>
       <c r="H12" t="n">
-        <v>33.05957657665959</v>
+        <v>32.57960033985194</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
         <v>10</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -902,20 +902,16 @@
       <c r="C13" t="n">
         <v>263</v>
       </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
       <c r="F13" t="n">
         <v>0.5321099758148193</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06532930844873908</v>
+        <v>0.0621257536157029</v>
       </c>
       <c r="H13" t="n">
-        <v>28.76673270984812</v>
+        <v>30.25010796471184</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
@@ -923,15 +919,9 @@
       <c r="J13" t="n">
         <v>11</v>
       </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="n">
@@ -941,21 +931,21 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>210</v>
+        <v>277</v>
       </c>
       <c r="D14" t="s"/>
       <c r="E14" t="s"/>
       <c r="F14" t="n">
-        <v>0.5258448123931885</v>
+        <v>0.5293171405792236</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07042797684921694</v>
+        <v>0.0693969065932054</v>
       </c>
       <c r="H14" t="n">
-        <v>27.0020783665856</v>
+        <v>27.22349815755957</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J14" t="n">
         <v>12</v>
@@ -980,13 +970,13 @@
         <v>0.5287280082702637</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07021173906841004</v>
+        <v>0.07006380095852847</v>
       </c>
       <c r="H15" t="n">
-        <v>26.93754127583462</v>
+        <v>26.99441927683777</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J15" t="n">
         <v>13</v>
@@ -1003,21 +993,21 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s"/>
       <c r="E16" t="s"/>
       <c r="F16" t="n">
-        <v>0.5187199115753174</v>
+        <v>0.5223469734191895</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07158418258449328</v>
+        <v>0.07328874075445889</v>
       </c>
       <c r="H16" t="n">
-        <v>26.93084688434785</v>
+        <v>26.12183354063319</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J16" t="n">
         <v>14</v>
@@ -1034,18 +1024,18 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>277</v>
+        <v>210</v>
       </c>
       <c r="D17" t="s"/>
       <c r="E17" t="s"/>
       <c r="F17" t="n">
-        <v>0.5293171405792236</v>
+        <v>0.5258448123931885</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07132368905076103</v>
+        <v>0.07361565059913183</v>
       </c>
       <c r="H17" t="n">
-        <v>26.48806566126857</v>
+        <v>25.83284579576968</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1073,13 +1063,13 @@
         <v>0.5312271118164062</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07129183554389161</v>
+        <v>0.07629772996820074</v>
       </c>
       <c r="H18" t="n">
-        <v>26.40462303888389</v>
+        <v>24.67221559633714</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J18" t="n">
         <v>16</v>
@@ -1096,21 +1086,21 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>274</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s"/>
       <c r="E19" t="s"/>
       <c r="F19" t="n">
-        <v>0.5261969566345215</v>
+        <v>0.5187199115753174</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07475561644908185</v>
+        <v>0.08086272216864893</v>
       </c>
       <c r="H19" t="n">
-        <v>25.42189033680562</v>
+        <v>23.84068466682933</v>
       </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="J19" t="n">
         <v>17</v>
@@ -1127,21 +1117,21 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>93</v>
+        <v>274</v>
       </c>
       <c r="D20" t="s"/>
       <c r="E20" t="s"/>
       <c r="F20" t="n">
-        <v>0.5223469734191895</v>
+        <v>0.5261969566345215</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07731988280918931</v>
+        <v>0.08051977879864265</v>
       </c>
       <c r="H20" t="n">
-        <v>24.75994811211831</v>
+        <v>23.60201570077956</v>
       </c>
       <c r="I20" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J20" t="n">
         <v>18</v>
@@ -1158,21 +1148,21 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="D21" t="s"/>
       <c r="E21" t="s"/>
       <c r="F21" t="n">
-        <v>0.884005069732666</v>
+        <v>0.8738658428192139</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06386316282406401</v>
+        <v>0.06366429017975136</v>
       </c>
       <c r="H21" t="n">
-        <v>17.71311006101306</v>
+        <v>17.97460413625921</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
         <v>19</v>
@@ -1189,21 +1179,21 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="D22" t="s"/>
       <c r="E22" t="s"/>
       <c r="F22" t="n">
-        <v>0.9071230888366699</v>
+        <v>0.8876419067382812</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06344089510608196</v>
+        <v>0.06313300486445798</v>
       </c>
       <c r="H22" t="n">
-        <v>17.37658691445473</v>
+        <v>17.84455581221744</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>20</v>
@@ -1220,21 +1210,21 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="D23" t="s"/>
       <c r="E23" t="s"/>
       <c r="F23" t="n">
-        <v>0.8738658428192139</v>
+        <v>0.8925979137420654</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0681512386072627</v>
+        <v>0.06280514341024043</v>
       </c>
       <c r="H23" t="n">
-        <v>16.79119025541843</v>
+        <v>17.83811341886834</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
         <v>21</v>
@@ -1251,21 +1241,21 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="D24" t="s"/>
       <c r="E24" t="s"/>
       <c r="F24" t="n">
-        <v>0.8738498687744141</v>
+        <v>0.9071230888366699</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06898158104346941</v>
+        <v>0.06253340843748169</v>
       </c>
       <c r="H24" t="n">
-        <v>16.58937523495169</v>
+        <v>17.62875645653889</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
         <v>22</v>
@@ -1282,18 +1272,18 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s"/>
       <c r="E25" t="s"/>
       <c r="F25" t="n">
-        <v>0.8925089836120605</v>
+        <v>0.8885660171508789</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06820442032327761</v>
+        <v>0.06705820206049024</v>
       </c>
       <c r="H25" t="n">
-        <v>16.42762882538887</v>
+        <v>16.78256720946357</v>
       </c>
       <c r="I25" t="n">
         <v>6</v>
@@ -1313,21 +1303,21 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s"/>
       <c r="E26" t="s"/>
       <c r="F26" t="n">
-        <v>0.8758289813995361</v>
+        <v>0.8872480392456055</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07021443390462198</v>
+        <v>0.06719051566124838</v>
       </c>
       <c r="H26" t="n">
-        <v>16.26126357477828</v>
+        <v>16.77439933038777</v>
       </c>
       <c r="I26" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
         <v>24</v>
@@ -1344,18 +1334,18 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="D27" t="s"/>
       <c r="E27" t="s"/>
       <c r="F27" t="n">
-        <v>0.8925979137420654</v>
+        <v>0.8966829776763916</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06953905201716146</v>
+        <v>0.06724009589500331</v>
       </c>
       <c r="H27" t="n">
-        <v>16.11073546363094</v>
+        <v>16.58565970448696</v>
       </c>
       <c r="I27" t="n">
         <v>6</v>
@@ -1375,21 +1365,21 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s"/>
       <c r="E28" t="s"/>
       <c r="F28" t="n">
-        <v>0.8966829776763916</v>
+        <v>0.8738498687744141</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07031735398388628</v>
+        <v>0.06936368571648423</v>
       </c>
       <c r="H28" t="n">
-        <v>15.85983097809904</v>
+        <v>16.49798911937558</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J28" t="n">
         <v>26</v>
@@ -1406,21 +1396,21 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s"/>
       <c r="E29" t="s"/>
       <c r="F29" t="n">
-        <v>0.8876419067382812</v>
+        <v>0.8758289813995361</v>
       </c>
       <c r="G29" t="n">
-        <v>0.07274044370894361</v>
+        <v>0.06929066792713426</v>
       </c>
       <c r="H29" t="n">
-        <v>15.48767606373976</v>
+        <v>16.47805470251192</v>
       </c>
       <c r="I29" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J29" t="n">
         <v>27</v>
@@ -1437,21 +1427,21 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s"/>
       <c r="E30" t="s"/>
       <c r="F30" t="n">
-        <v>0.8872480392456055</v>
+        <v>0.8925089836120605</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07277608440242812</v>
+        <v>0.06950354570272226</v>
       </c>
       <c r="H30" t="n">
-        <v>15.48696319911998</v>
+        <v>16.12057183548449</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
         <v>28</v>
@@ -1468,21 +1458,21 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>8</v>
+        <v>243</v>
       </c>
       <c r="D31" t="s"/>
       <c r="E31" t="s"/>
       <c r="F31" t="n">
-        <v>0.8885660171508789</v>
+        <v>0.884005069732666</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08682983864626333</v>
+        <v>0.07209249029431762</v>
       </c>
       <c r="H31" t="n">
-        <v>12.96108343136253</v>
+        <v>15.69116599147646</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J31" t="n">
         <v>29</v>

--- a/data/scheduling_DNN/schedule/3.xlsx
+++ b/data/scheduling_DNN/schedule/3.xlsx
@@ -453,37 +453,33 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>58</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
+        <v>228</v>
+      </c>
+      <c r="D2" t="s"/>
+      <c r="E2" t="s"/>
+      <c r="F2" t="n">
+        <v>0.3962569236755371</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.06040195685642661</v>
+      </c>
+      <c r="H2" t="n">
+        <v>41.78035517736948</v>
+      </c>
+      <c r="I2" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.3907439708709717</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.06258220014261509</v>
-      </c>
-      <c r="H2" t="n">
-        <v>40.89374525122945</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6</v>
-      </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -494,21 +490,21 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s"/>
       <c r="E3" t="s"/>
       <c r="F3" t="n">
-        <v>0.3943130970001221</v>
+        <v>0.3998570442199707</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06293789983179811</v>
+        <v>0.06049419599809088</v>
       </c>
       <c r="H3" t="n">
-        <v>40.29457234065668</v>
+        <v>41.34105349769947</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -531,37 +527,33 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>285</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
       <c r="F4" t="n">
-        <v>0.4026319980621338</v>
+        <v>0.4023351669311523</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0623462585347629</v>
+        <v>0.06035609083223123</v>
       </c>
       <c r="H4" t="n">
-        <v>39.83651310846555</v>
+        <v>41.1804323488025</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -574,20 +566,16 @@
       <c r="C5" t="n">
         <v>297</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
       <c r="F5" t="n">
         <v>0.4044609069824219</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06297460430057811</v>
+        <v>0.0607443772783743</v>
       </c>
       <c r="H5" t="n">
-        <v>39.26069662737825</v>
+        <v>40.70215130107851</v>
       </c>
       <c r="I5" t="n">
         <v>6</v>
@@ -596,13 +584,13 @@
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -613,37 +601,33 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>286</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
       <c r="F6" t="n">
-        <v>0.4023351669311523</v>
+        <v>0.4121530055999756</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06359206941579193</v>
+        <v>0.06027954174254092</v>
       </c>
       <c r="H6" t="n">
-        <v>39.08490379678776</v>
+        <v>40.2505284575827</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -654,25 +638,21 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>176</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
       <c r="F7" t="n">
-        <v>0.3984708786010742</v>
+        <v>0.3907439708709717</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06821437123479886</v>
+        <v>0.0662596133924598</v>
       </c>
       <c r="H7" t="n">
-        <v>36.78980892269688</v>
+        <v>38.62413948501533</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J7" t="n">
         <v>5</v>
@@ -695,25 +675,21 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>228</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
       <c r="F8" t="n">
-        <v>0.3962569236755371</v>
+        <v>0.3943130970001221</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06991584557428154</v>
+        <v>0.06879051643644585</v>
       </c>
       <c r="H8" t="n">
-        <v>36.09503954562712</v>
+        <v>36.86635729918386</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J8" t="n">
         <v>6</v>
@@ -736,22 +712,18 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>103</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
       <c r="F9" t="n">
-        <v>0.4121530055999756</v>
+        <v>0.3984708786010742</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0685962294564646</v>
+        <v>0.07016228383632209</v>
       </c>
       <c r="H9" t="n">
-        <v>35.37050694394299</v>
+        <v>35.7684149701378</v>
       </c>
       <c r="I9" t="n">
         <v>11</v>
@@ -777,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>59</v>
+        <v>285</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3930368423461914</v>
+        <v>0.4026319980621338</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0719355159446991</v>
+        <v>0.07113329346282207</v>
       </c>
       <c r="H10" t="n">
-        <v>35.36904838318669</v>
+        <v>34.91554270128027</v>
       </c>
       <c r="I10" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J10" t="n">
         <v>8</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -820,23 +792,19 @@
       <c r="C11" t="n">
         <v>295</v>
       </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
       <c r="F11" t="n">
         <v>0.4040439128875732</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07023566101285883</v>
+        <v>0.07186065441509761</v>
       </c>
       <c r="H11" t="n">
-        <v>35.23820336583145</v>
+        <v>34.44135774227986</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
         <v>9</v>
@@ -859,37 +827,33 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>173</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
       <c r="F12" t="n">
-        <v>0.3998570442199707</v>
+        <v>0.3930368423461914</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07676256820125123</v>
+        <v>0.07412522256211337</v>
       </c>
       <c r="H12" t="n">
-        <v>32.57960033985194</v>
+        <v>34.32422400871129</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="J12" t="n">
         <v>10</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -900,28 +864,34 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="D13" t="s"/>
       <c r="E13" t="s"/>
       <c r="F13" t="n">
-        <v>0.5321099758148193</v>
+        <v>0.5293171405792236</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0621257536157029</v>
+        <v>0.05990837900617089</v>
       </c>
       <c r="H13" t="n">
-        <v>30.25010796471184</v>
+        <v>31.53526418376067</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
         <v>11</v>
       </c>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
-      <c r="M13" t="s"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="n">
@@ -931,28 +901,38 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>277</v>
-      </c>
-      <c r="D14" t="s"/>
-      <c r="E14" t="s"/>
+        <v>210</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
       <c r="F14" t="n">
-        <v>0.5293171405792236</v>
+        <v>0.5258448123931885</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0693969065932054</v>
+        <v>0.06536390543923626</v>
       </c>
       <c r="H14" t="n">
-        <v>27.22349815755957</v>
+        <v>29.09406555963056</v>
       </c>
       <c r="I14" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J14" t="n">
         <v>12</v>
       </c>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
-      <c r="M14" t="s"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="n">
@@ -962,28 +942,38 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>217</v>
-      </c>
-      <c r="D15" t="s"/>
-      <c r="E15" t="s"/>
+        <v>216</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
       <c r="F15" t="n">
-        <v>0.5287280082702637</v>
+        <v>0.5312271118164062</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07006380095852847</v>
+        <v>0.06566387081613312</v>
       </c>
       <c r="H15" t="n">
-        <v>26.99441927683777</v>
+        <v>28.66772884220621</v>
       </c>
       <c r="I15" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
         <v>13</v>
       </c>
-      <c r="K15" t="s"/>
-      <c r="L15" t="s"/>
-      <c r="M15" t="s"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="n">
@@ -993,28 +983,38 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>93</v>
-      </c>
-      <c r="D16" t="s"/>
-      <c r="E16" t="s"/>
+        <v>217</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
       <c r="F16" t="n">
-        <v>0.5223469734191895</v>
+        <v>0.5287280082702637</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07328874075445889</v>
+        <v>0.06639870961399019</v>
       </c>
       <c r="H16" t="n">
-        <v>26.12183354063319</v>
+        <v>28.48446348127408</v>
       </c>
       <c r="I16" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
         <v>14</v>
       </c>
-      <c r="K16" t="s"/>
-      <c r="L16" t="s"/>
-      <c r="M16" t="s"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="n">
@@ -1024,28 +1024,38 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>210</v>
-      </c>
-      <c r="D17" t="s"/>
-      <c r="E17" t="s"/>
+        <v>274</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
       <c r="F17" t="n">
-        <v>0.5258448123931885</v>
+        <v>0.5261969566345215</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07361565059913183</v>
+        <v>0.06688717985486781</v>
       </c>
       <c r="H17" t="n">
-        <v>25.83284579576968</v>
+        <v>28.41245643114904</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
         <v>15</v>
       </c>
-      <c r="K17" t="s"/>
-      <c r="L17" t="s"/>
-      <c r="M17" t="s"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="n">
@@ -1055,28 +1065,34 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>216</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s"/>
       <c r="E18" t="s"/>
       <c r="F18" t="n">
-        <v>0.5312271118164062</v>
+        <v>0.5187199115753174</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07629772996820074</v>
+        <v>0.07047624155257522</v>
       </c>
       <c r="H18" t="n">
-        <v>24.67221559633714</v>
+        <v>27.35422062889143</v>
       </c>
       <c r="I18" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J18" t="n">
         <v>16</v>
       </c>
-      <c r="K18" t="s"/>
-      <c r="L18" t="s"/>
-      <c r="M18" t="s"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="n">
@@ -1086,28 +1102,34 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>92</v>
+        <v>263</v>
       </c>
       <c r="D19" t="s"/>
       <c r="E19" t="s"/>
       <c r="F19" t="n">
-        <v>0.5187199115753174</v>
+        <v>0.5321099758148193</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08086272216864893</v>
+        <v>0.07087479889481475</v>
       </c>
       <c r="H19" t="n">
-        <v>23.84068466682933</v>
+        <v>26.51592362262902</v>
       </c>
       <c r="I19" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J19" t="n">
         <v>17</v>
       </c>
-      <c r="K19" t="s"/>
-      <c r="L19" t="s"/>
-      <c r="M19" t="s"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="n">
@@ -1117,28 +1139,34 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>274</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s"/>
       <c r="E20" t="s"/>
       <c r="F20" t="n">
-        <v>0.5261969566345215</v>
+        <v>0.5223469734191895</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08051977879864265</v>
+        <v>0.0729896790510607</v>
       </c>
       <c r="H20" t="n">
-        <v>23.60201570077956</v>
+        <v>26.22886291980173</v>
       </c>
       <c r="I20" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J20" t="n">
         <v>18</v>
       </c>
-      <c r="K20" t="s"/>
-      <c r="L20" t="s"/>
-      <c r="M20" t="s"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="n">
@@ -1150,16 +1178,20 @@
       <c r="C21" t="n">
         <v>197</v>
       </c>
-      <c r="D21" t="s"/>
-      <c r="E21" t="s"/>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
       <c r="F21" t="n">
         <v>0.8738658428192139</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06366429017975136</v>
+        <v>0.06091168428211207</v>
       </c>
       <c r="H21" t="n">
-        <v>17.97460413625921</v>
+        <v>18.78687852887075</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
@@ -1167,9 +1199,15 @@
       <c r="J21" t="n">
         <v>19</v>
       </c>
-      <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
-      <c r="M21" t="s"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="n">
@@ -1179,28 +1217,38 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>180</v>
-      </c>
-      <c r="D22" t="s"/>
-      <c r="E22" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
       <c r="F22" t="n">
-        <v>0.8876419067382812</v>
+        <v>0.8966829776763916</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06313300486445798</v>
+        <v>0.06476644883967078</v>
       </c>
       <c r="H22" t="n">
-        <v>17.84455581221744</v>
+        <v>17.21912145858613</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
         <v>20</v>
       </c>
-      <c r="K22" t="s"/>
-      <c r="L22" t="s"/>
-      <c r="M22" t="s"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="n">
@@ -1210,28 +1258,38 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>249</v>
-      </c>
-      <c r="D23" t="s"/>
-      <c r="E23" t="s"/>
+        <v>243</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
       <c r="F23" t="n">
-        <v>0.8925979137420654</v>
+        <v>0.884005069732666</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06280514341024043</v>
+        <v>0.06723367197866717</v>
       </c>
       <c r="H23" t="n">
-        <v>17.83811341886834</v>
+        <v>16.8251294129223</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J23" t="n">
         <v>21</v>
       </c>
-      <c r="K23" t="s"/>
-      <c r="L23" t="s"/>
-      <c r="M23" t="s"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="n">
@@ -1241,28 +1299,38 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>241</v>
-      </c>
-      <c r="D24" t="s"/>
-      <c r="E24" t="s"/>
+        <v>8</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
       <c r="F24" t="n">
-        <v>0.9071230888366699</v>
+        <v>0.8885660171508789</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06253340843748169</v>
+        <v>0.06689714479919928</v>
       </c>
       <c r="H24" t="n">
-        <v>17.62875645653889</v>
+        <v>16.82297183839506</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J24" t="n">
         <v>22</v>
       </c>
-      <c r="K24" t="s"/>
-      <c r="L24" t="s"/>
-      <c r="M24" t="s"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="n">
@@ -1272,28 +1340,38 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s"/>
-      <c r="E25" t="s"/>
+        <v>10</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
       <c r="F25" t="n">
-        <v>0.8885660171508789</v>
+        <v>0.8872480392456055</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06705820206049024</v>
+        <v>0.0670785802655933</v>
       </c>
       <c r="H25" t="n">
-        <v>16.78256720946357</v>
+        <v>16.80239111283887</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J25" t="n">
         <v>23</v>
       </c>
-      <c r="K25" t="s"/>
-      <c r="L25" t="s"/>
-      <c r="M25" t="s"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="n">
@@ -1303,28 +1381,38 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s"/>
-      <c r="E26" t="s"/>
+        <v>241</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
       <c r="F26" t="n">
-        <v>0.8872480392456055</v>
+        <v>0.9071230888366699</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06719051566124838</v>
+        <v>0.06646573286897693</v>
       </c>
       <c r="H26" t="n">
-        <v>16.77439933038777</v>
+        <v>16.58578308185902</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>24</v>
       </c>
-      <c r="K26" t="s"/>
-      <c r="L26" t="s"/>
-      <c r="M26" t="s"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="n">
@@ -1334,28 +1422,38 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>189</v>
-      </c>
-      <c r="D27" t="s"/>
-      <c r="E27" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
       <c r="F27" t="n">
-        <v>0.8966829776763916</v>
+        <v>0.8758289813995361</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06724009589500331</v>
+        <v>0.06926447968051508</v>
       </c>
       <c r="H27" t="n">
-        <v>16.58565970448696</v>
+        <v>16.48428489961069</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J27" t="n">
         <v>25</v>
       </c>
-      <c r="K27" t="s"/>
-      <c r="L27" t="s"/>
-      <c r="M27" t="s"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="n">
@@ -1365,28 +1463,38 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>65</v>
-      </c>
-      <c r="D28" t="s"/>
-      <c r="E28" t="s"/>
+        <v>14</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
       <c r="F28" t="n">
-        <v>0.8738498687744141</v>
+        <v>0.8925089836120605</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06936368571648423</v>
+        <v>0.06888802255397408</v>
       </c>
       <c r="H28" t="n">
-        <v>16.49798911937558</v>
+        <v>16.26461117306345</v>
       </c>
       <c r="I28" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J28" t="n">
         <v>26</v>
       </c>
-      <c r="K28" t="s"/>
-      <c r="L28" t="s"/>
-      <c r="M28" t="s"/>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="n">
@@ -1396,28 +1504,34 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="D29" t="s"/>
       <c r="E29" t="s"/>
       <c r="F29" t="n">
-        <v>0.8758289813995361</v>
+        <v>0.8876419067382812</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06929066792713426</v>
+        <v>0.07189947986121889</v>
       </c>
       <c r="H29" t="n">
-        <v>16.47805470251192</v>
+        <v>15.66882585341859</v>
       </c>
       <c r="I29" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
         <v>27</v>
       </c>
-      <c r="K29" t="s"/>
-      <c r="L29" t="s"/>
-      <c r="M29" t="s"/>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="n">
@@ -1427,28 +1541,38 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>14</v>
-      </c>
-      <c r="D30" t="s"/>
-      <c r="E30" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
       <c r="F30" t="n">
-        <v>0.8925089836120605</v>
+        <v>0.8925979137420654</v>
       </c>
       <c r="G30" t="n">
-        <v>0.06950354570272226</v>
+        <v>0.07212043084173082</v>
       </c>
       <c r="H30" t="n">
-        <v>16.12057183548449</v>
+        <v>15.53409010962133</v>
       </c>
       <c r="I30" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J30" t="n">
         <v>28</v>
       </c>
-      <c r="K30" t="s"/>
-      <c r="L30" t="s"/>
-      <c r="M30" t="s"/>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="n">
@@ -1458,18 +1582,22 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>243</v>
-      </c>
-      <c r="D31" t="s"/>
-      <c r="E31" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
       <c r="F31" t="n">
-        <v>0.884005069732666</v>
+        <v>0.8738498687744141</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07209249029431762</v>
+        <v>0.07924327439885089</v>
       </c>
       <c r="H31" t="n">
-        <v>15.69116599147646</v>
+        <v>14.44111618192974</v>
       </c>
       <c r="I31" t="n">
         <v>13</v>
@@ -1477,9 +1605,15 @@
       <c r="J31" t="n">
         <v>29</v>
       </c>
-      <c r="K31" t="s"/>
-      <c r="L31" t="s"/>
-      <c r="M31" t="s"/>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/data/scheduling_DNN/schedule/3.xlsx
+++ b/data/scheduling_DNN/schedule/3.xlsx
@@ -455,8 +455,12 @@
       <c r="C2" t="n">
         <v>228</v>
       </c>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
       <c r="F2" t="n">
         <v>0.3962569236755371</v>
       </c>
@@ -473,13 +477,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -492,8 +496,12 @@
       <c r="C3" t="n">
         <v>173</v>
       </c>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
       <c r="F3" t="n">
         <v>0.3998570442199707</v>
       </c>
@@ -510,13 +518,13 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -529,8 +537,12 @@
       <c r="C4" t="n">
         <v>286</v>
       </c>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
       <c r="F4" t="n">
         <v>0.4023351669311523</v>
       </c>
@@ -547,13 +559,13 @@
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -566,8 +578,12 @@
       <c r="C5" t="n">
         <v>297</v>
       </c>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
       <c r="F5" t="n">
         <v>0.4044609069824219</v>
       </c>
@@ -584,13 +600,13 @@
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -603,8 +619,12 @@
       <c r="C6" t="n">
         <v>103</v>
       </c>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" t="n">
         <v>0.4121530055999756</v>
       </c>
@@ -621,13 +641,13 @@
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -640,8 +660,12 @@
       <c r="C7" t="n">
         <v>58</v>
       </c>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
       <c r="F7" t="n">
         <v>0.3907439708709717</v>
       </c>
@@ -658,13 +682,13 @@
         <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -677,8 +701,12 @@
       <c r="C8" t="n">
         <v>47</v>
       </c>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
       <c r="F8" t="n">
         <v>0.3943130970001221</v>
       </c>
@@ -714,8 +742,12 @@
       <c r="C9" t="n">
         <v>176</v>
       </c>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
       <c r="F9" t="n">
         <v>0.3984708786010742</v>
       </c>
@@ -755,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>0.4026319980621338</v>
@@ -776,10 +808,10 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -792,8 +824,12 @@
       <c r="C11" t="n">
         <v>295</v>
       </c>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
       <c r="F11" t="n">
         <v>0.4040439128875732</v>
       </c>
@@ -829,8 +865,12 @@
       <c r="C12" t="n">
         <v>59</v>
       </c>
-      <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
       <c r="F12" t="n">
         <v>0.3930368423461914</v>
       </c>
@@ -866,8 +906,12 @@
       <c r="C13" t="n">
         <v>277</v>
       </c>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
       <c r="F13" t="n">
         <v>0.5293171405792236</v>
       </c>
@@ -925,13 +969,13 @@
         <v>12</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -966,13 +1010,13 @@
         <v>13</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1007,13 +1051,13 @@
         <v>14</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1048,13 +1092,13 @@
         <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1067,8 +1111,12 @@
       <c r="C18" t="n">
         <v>92</v>
       </c>
-      <c r="D18" t="s"/>
-      <c r="E18" t="s"/>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
       <c r="F18" t="n">
         <v>0.5187199115753174</v>
       </c>
@@ -1104,8 +1152,12 @@
       <c r="C19" t="n">
         <v>263</v>
       </c>
-      <c r="D19" t="s"/>
-      <c r="E19" t="s"/>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
       <c r="F19" t="n">
         <v>0.5321099758148193</v>
       </c>
@@ -1141,8 +1193,12 @@
       <c r="C20" t="n">
         <v>93</v>
       </c>
-      <c r="D20" t="s"/>
-      <c r="E20" t="s"/>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
       <c r="F20" t="n">
         <v>0.5223469734191895</v>
       </c>
@@ -1200,13 +1256,13 @@
         <v>19</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1241,13 +1297,13 @@
         <v>20</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1282,13 +1338,13 @@
         <v>21</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1323,13 +1379,13 @@
         <v>22</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1346,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>0.8872480392456055</v>
@@ -1364,13 +1420,13 @@
         <v>23</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1405,13 +1461,13 @@
         <v>24</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1446,13 +1502,13 @@
         <v>25</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1506,8 +1562,12 @@
       <c r="C29" t="n">
         <v>180</v>
       </c>
-      <c r="D29" t="s"/>
-      <c r="E29" t="s"/>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
       <c r="F29" t="n">
         <v>0.8876419067382812</v>
       </c>
